--- a/data/c2/cfus_at.xlsx
+++ b/data/c2/cfus_at.xlsx
@@ -217,7 +217,7 @@
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -319,7 +319,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="n">
-        <v>25.5</v>
+        <v>25.2</v>
       </c>
       <c r="C7" s="5" t="n">
         <v>-5</v>
@@ -334,7 +334,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="5" t="n">
-        <v>25.5</v>
+        <v>25.2</v>
       </c>
       <c r="C8" s="5" t="n">
         <v>-6</v>
@@ -349,7 +349,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="5" t="n">
-        <v>25.5</v>
+        <v>25.2</v>
       </c>
       <c r="C9" s="5" t="n">
         <v>-6</v>
@@ -364,7 +364,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="5" t="n">
-        <v>25.5</v>
+        <v>25.2</v>
       </c>
       <c r="C10" s="5" t="n">
         <v>-6</v>
@@ -379,7 +379,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="5" t="n">
-        <v>47.9</v>
+        <v>47.4</v>
       </c>
       <c r="C11" s="5" t="n">
         <v>-5</v>
@@ -394,7 +394,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="5" t="n">
-        <v>47.9</v>
+        <v>47.4</v>
       </c>
       <c r="C12" s="5" t="n">
         <v>-6</v>
@@ -409,7 +409,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="5" t="n">
-        <v>47.9</v>
+        <v>47.4</v>
       </c>
       <c r="C13" s="5" t="n">
         <v>-6</v>
@@ -424,7 +424,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="5" t="n">
-        <v>47.9</v>
+        <v>47.4</v>
       </c>
       <c r="C14" s="5" t="n">
         <v>-6</v>
